--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H2">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N2">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O2">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P2">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q2">
-        <v>44.10275103081711</v>
+        <v>16.33915256596666</v>
       </c>
       <c r="R2">
-        <v>396.924759277354</v>
+        <v>147.0523730937</v>
       </c>
       <c r="S2">
-        <v>0.007597813695984237</v>
+        <v>0.006513852134181889</v>
       </c>
       <c r="T2">
-        <v>0.007597813695984237</v>
+        <v>0.006513852134181889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H3">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q3">
-        <v>18.13953625081444</v>
+        <v>64.92331207976667</v>
       </c>
       <c r="R3">
-        <v>163.25582625733</v>
+        <v>584.3098087179001</v>
       </c>
       <c r="S3">
-        <v>0.003124993651052227</v>
+        <v>0.02588266761336316</v>
       </c>
       <c r="T3">
-        <v>0.003124993651052227</v>
+        <v>0.02588266761336316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H4">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P4">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q4">
-        <v>5.860048904906111</v>
+        <v>20.97373265751667</v>
       </c>
       <c r="R4">
-        <v>52.740440144155</v>
+        <v>188.76359391765</v>
       </c>
       <c r="S4">
-        <v>0.001009541554396956</v>
+        <v>0.00836149810593574</v>
       </c>
       <c r="T4">
-        <v>0.001009541554396956</v>
+        <v>0.00836149810593574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>66.829058</v>
       </c>
       <c r="I5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N5">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O5">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P5">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q5">
-        <v>1529.465251474947</v>
+        <v>158.3175186204378</v>
       </c>
       <c r="R5">
-        <v>13765.18726327453</v>
+        <v>1424.85766758394</v>
       </c>
       <c r="S5">
-        <v>0.2634890514441686</v>
+        <v>0.06311569112171442</v>
       </c>
       <c r="T5">
-        <v>0.2634890514441686</v>
+        <v>0.06311569112171442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>66.829058</v>
       </c>
       <c r="I6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q6">
         <v>629.0716502946644</v>
@@ -818,10 +818,10 @@
         <v>5661.644852651981</v>
       </c>
       <c r="S6">
-        <v>0.1083734934590464</v>
+        <v>0.2507889987122349</v>
       </c>
       <c r="T6">
-        <v>0.1083734934590464</v>
+        <v>0.2507889987122349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>66.829058</v>
       </c>
       <c r="I7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>27.368585</v>
       </c>
       <c r="O7">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P7">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q7">
         <v>203.2240838158811</v>
@@ -880,10 +880,10 @@
         <v>1829.01675434293</v>
       </c>
       <c r="S7">
-        <v>0.03501048554298185</v>
+        <v>0.08101837758945725</v>
       </c>
       <c r="T7">
-        <v>0.03501048554298184</v>
+        <v>0.08101837758945725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.494299</v>
       </c>
       <c r="I8">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J8">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N8">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O8">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P8">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q8">
-        <v>2185.504575486591</v>
+        <v>226.2252515975633</v>
       </c>
       <c r="R8">
-        <v>19669.54117937932</v>
+        <v>2036.02726437807</v>
       </c>
       <c r="S8">
-        <v>0.3765084083907904</v>
+        <v>0.09018814360017827</v>
       </c>
       <c r="T8">
-        <v>0.3765084083907903</v>
+        <v>0.09018814360017825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.494299</v>
       </c>
       <c r="I9">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J9">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.71831</v>
       </c>
       <c r="O9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q9">
         <v>898.9017362127433</v>
@@ -1004,10 +1004,10 @@
         <v>8090.11562591469</v>
       </c>
       <c r="S9">
-        <v>0.1548585465330473</v>
+        <v>0.3583608739320667</v>
       </c>
       <c r="T9">
-        <v>0.1548585465330473</v>
+        <v>0.3583608739320667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.494299</v>
       </c>
       <c r="I10">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J10">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>27.368585</v>
       </c>
       <c r="O10">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P10">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q10">
         <v>290.3937599107683</v>
@@ -1066,10 +1066,10 @@
         <v>2613.543839196915</v>
       </c>
       <c r="S10">
-        <v>0.05002766572853213</v>
+        <v>0.1157698971908676</v>
       </c>
       <c r="T10">
-        <v>0.05002766572853211</v>
+        <v>0.1157698971908676</v>
       </c>
     </row>
   </sheetData>
